--- a/MovieDataBase/movieMY.xlsx
+++ b/MovieDataBase/movieMY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\py_spyder\MovieDataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CBA226-0AC8-45A5-94EE-262DA0225039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E208A0C6-8B19-4318-8451-F6DEBD4140CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="413">
   <si>
     <t>序号</t>
   </si>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4297,8 +4297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6F3B5D-3233-4CA4-AC62-A098A3419FD8}">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4369,9 +4369,7 @@
       <c r="T1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="2">
@@ -6843,7 +6841,9 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
       <c r="I78" s="2">
         <v>1</v>
       </c>
@@ -6858,9 +6858,7 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
-      <c r="U78" s="2">
-        <v>1</v>
-      </c>
+      <c r="U78" s="2"/>
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="2">
